--- a/server/files/donhang.xlsx
+++ b/server/files/donhang.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>STT</t>
   </si>
@@ -37,46 +37,178 @@
     <t>Tình trạng đơn hàng</t>
   </si>
   <si>
-    <t>"6566e206131a087d2bfa56a1"</t>
+    <t>"657f25e02b93979fd4cc8cfb"</t>
+  </si>
+  <si>
+    <t>Lê Thảo Trang</t>
+  </si>
+  <si>
+    <t>0234893456</t>
+  </si>
+  <si>
+    <t>Đã Thanh Toán</t>
+  </si>
+  <si>
+    <t>"657f280c0848770851a9dca0"</t>
+  </si>
+  <si>
+    <t>Nguyễn Trường Giang</t>
+  </si>
+  <si>
+    <t>Chưa Thanh Toán</t>
+  </si>
+  <si>
+    <t>"657f288f7f946699d23493e9"</t>
+  </si>
+  <si>
+    <t>"657f290f7f946699d2349408"</t>
+  </si>
+  <si>
+    <t>Đinh Thị Thao</t>
+  </si>
+  <si>
+    <t>0334693499</t>
+  </si>
+  <si>
+    <t>"65812e21b1bbdebc6aa2142a"</t>
+  </si>
+  <si>
+    <t>Nguyễn Hà Ánh</t>
+  </si>
+  <si>
+    <t>Hoàng Mai, Hà Nội</t>
+  </si>
+  <si>
+    <t>0324596489</t>
+  </si>
+  <si>
+    <t>"65812e99847af668779f5e6e"</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc Phúc</t>
+  </si>
+  <si>
+    <t>Xuân Phương, Nam Từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>0434596488</t>
+  </si>
+  <si>
+    <t>"658130c8c5e834499b4c943f"</t>
+  </si>
+  <si>
+    <t>"6581314dc5e834499b4c949b"</t>
   </si>
   <si>
     <t>Trương Thị Thuỷ</t>
   </si>
   <si>
-    <t>1111111111</t>
-  </si>
-  <si>
-    <t>Chưa Thanh Toán</t>
-  </si>
-  <si>
-    <t>"6566e443131a087d2bfa57e0"</t>
+    <t>Tu Hoàng, Nam Từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>0434566478</t>
+  </si>
+  <si>
+    <t>"658131d4c5e834499b4c94d6"</t>
+  </si>
+  <si>
+    <t>Đặng Thanh Nhàn</t>
+  </si>
+  <si>
+    <t>Phú Thọ</t>
+  </si>
+  <si>
+    <t>0234566479</t>
+  </si>
+  <si>
+    <t>"658132325c375ae50e4fdb81"</t>
+  </si>
+  <si>
+    <t>Lê Thị Hồng Ngọc</t>
+  </si>
+  <si>
+    <t>Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>0434566470</t>
+  </si>
+  <si>
+    <t>"6581328e5c375ae50e4fdb8b"</t>
+  </si>
+  <si>
+    <t>Dương Văn Thanh</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>0234567475</t>
+  </si>
+  <si>
+    <t>"658132d320234853ab33fc3e"</t>
+  </si>
+  <si>
+    <t>Phan Ngọc Huệ</t>
+  </si>
+  <si>
+    <t>"65813338f60726598a626ee2"</t>
+  </si>
+  <si>
+    <t>Nguyễn Phan Hải Đông</t>
+  </si>
+  <si>
+    <t>Hải Hậu, Nam Định</t>
+  </si>
+  <si>
+    <t>0224565575</t>
+  </si>
+  <si>
+    <t>"65813647f60726598a627140"</t>
+  </si>
+  <si>
+    <t>Trần Đông Hải</t>
+  </si>
+  <si>
+    <t>Ý Yên, Nam Định</t>
+  </si>
+  <si>
+    <t>0444565577</t>
+  </si>
+  <si>
+    <t>"658136960fc788d643638ea2"</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Nam</t>
+  </si>
+  <si>
+    <t>Hưng Yên</t>
+  </si>
+  <si>
+    <t>0444565575</t>
+  </si>
+  <si>
+    <t>"6581385a9c345741bd07d7c7"</t>
+  </si>
+  <si>
+    <t>"658138799c345741bd07d833"</t>
+  </si>
+  <si>
+    <t>"6581390b9c345741bd07da1f"</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>"65817f943977565a7b8dd15c"</t>
+  </si>
+  <si>
+    <t>212 Hàng Bái Hà Nội</t>
   </si>
   <si>
     <t>0123456789</t>
   </si>
   <si>
-    <t>"6566e44a131a087d2bfa57ea"</t>
-  </si>
-  <si>
-    <t>"6566e45a131a087d2bfa580b"</t>
-  </si>
-  <si>
-    <t>"6566e477131a087d2bfa582f"</t>
-  </si>
-  <si>
-    <t>"6567407c0e9e3bdf29302f99"</t>
-  </si>
-  <si>
-    <t>212 Hàng Bái Hà Nội</t>
-  </si>
-  <si>
-    <t>1242353465</t>
-  </si>
-  <si>
-    <t>"65680e6fd98512006f8adb0e"</t>
-  </si>
-  <si>
-    <t>"65681afeeb67e32088861f73"</t>
+    <t>"6581894d0e023dbe78265609"</t>
   </si>
 </sst>
 </file>
@@ -457,7 +589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H21"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -510,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>16270000</v>
+        <v>37489998</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -524,19 +656,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="G3">
-        <v>16270000</v>
+        <v>37570000</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -544,22 +676,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="G4">
-        <v>16270000</v>
+        <v>107760000</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -567,22 +699,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>62629999</v>
+        <v>198530000</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -590,19 +722,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="G6">
-        <v>42829999</v>
+        <v>80570000</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
@@ -613,25 +748,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="G7">
-        <v>10129999</v>
+        <v>36160000</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -639,25 +774,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62010000</v>
+        <v>31900000</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -665,25 +800,337 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>50000</v>
+      </c>
+      <c r="G9">
+        <v>29310000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <v>100000</v>
+      </c>
+      <c r="G10">
+        <v>59970000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>118570000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>59800000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>82966366</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>174600000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>30350000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>39670000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>82966366</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>47868183</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>13900000</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>47868183</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>16270000</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>16729999</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/server/files/donhang.xlsx
+++ b/server/files/donhang.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>STT</t>
   </si>
@@ -208,7 +208,10 @@
     <t>0123456789</t>
   </si>
   <si>
-    <t>"6581894d0e023dbe78265609"</t>
+    <t>"6582b2543cfae5dae584e1eb"</t>
+  </si>
+  <si>
+    <t>"658312f876429d983598fd19"</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1133,6 +1136,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>16729999</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
